--- a/BOM - orders/parts list.xlsx
+++ b/BOM - orders/parts list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnyvenom/Documents/Projects/Noisebox-2018/BOM - orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F7EC5-7BB0-384D-8C86-A4E3585EA78D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AB7533-8D61-E044-80AC-6B7A7547C56B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2240" windowWidth="27640" windowHeight="18760" xr2:uid="{2B5DF1BB-4645-CE4B-94A1-70572321EE1F}"/>
+    <workbookView xWindow="2680" yWindow="-25160" windowWidth="27640" windowHeight="22200" xr2:uid="{2B5DF1BB-4645-CE4B-94A1-70572321EE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="103">
   <si>
     <t>Noisebox 2018 materials list</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>https://www.mouser.ca/ProjectManager/ProjectDetail.aspx?AccessID=2ecda1393f</t>
+  </si>
+  <si>
+    <t>Prynth MUX board</t>
+  </si>
+  <si>
+    <t>4051 multiplexer IC</t>
   </si>
 </sst>
 </file>
@@ -892,11 +898,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FC207D-D5D8-F941-A584-1FD97A84F6E0}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1011,7 +1015,7 @@
         <v>60.72</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" ref="I6:I10" si="0">IF(C6=" "," ",IF(G6="USD",C6*(H6*$H$3),C6*H6))</f>
+        <f t="shared" ref="I6:I12" si="0">IF(C6=" "," ",IF(G6="USD",C6*(H6*$H$3),C6*H6))</f>
         <v>60.72</v>
       </c>
     </row>
@@ -1070,148 +1074,107 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="5">
-        <v>15.95</v>
+        <v>69</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5">
+        <v>15.95</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
         <v>20.691934999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="22">
+      <c r="E12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="22">
         <v>3581</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H12" s="5">
         <v>6.95</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
         <v>9.016235</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="22">
-        <v>2465</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5">
-        <v>19.95</v>
-      </c>
-      <c r="I12" s="5">
-        <f>IF(C12=" "," ",IF(G12="USD",C12*(H12*$H$3),C12*H12))</f>
-        <v>25.881134999999997</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>7</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="22">
-        <v>353</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="5">
-        <v>29.5</v>
-      </c>
-      <c r="I13" s="5">
-        <f>IF(C13=" "," ",IF(G13="USD",C13*(H13*$H$3),C13*H13))</f>
-        <v>38.270349999999993</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1223,31 +1186,67 @@
         <v>40</v>
       </c>
       <c r="F14" s="22">
-        <v>1994</v>
+        <v>2465</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="5">
-        <v>6.95</v>
+        <v>19.95</v>
       </c>
       <c r="I14" s="5">
         <f>IF(C14=" "," ",IF(G14="USD",C14*(H14*$H$3),C14*H14))</f>
-        <v>9.016235</v>
-      </c>
-      <c r="J14" s="20"/>
+        <v>25.881134999999997</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="27" t="s">
-        <v>18</v>
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="22">
+        <v>353</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="I15" s="5">
+        <f>IF(C15=" "," ",IF(G15="USD",C15*(H15*$H$3),C15*H15))</f>
+        <v>38.270349999999993</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -1258,839 +1257,875 @@
       <c r="E16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="17">
-        <v>2674</v>
+      <c r="F16" s="22">
+        <v>1994</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="5">
-        <v>49.95</v>
+        <v>6.95</v>
       </c>
       <c r="I16" s="5">
         <f>IF(C16=" "," ",IF(G16="USD",C16*(H16*$H$3),C16*H16))</f>
-        <v>64.800134999999997</v>
-      </c>
+        <v>9.016235</v>
+      </c>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2674</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5">
+        <v>49.95</v>
+      </c>
+      <c r="I18" s="5">
+        <f>IF(C18=" "," ",IF(G18="USD",C18*(H18*$H$3),C18*H18))</f>
+        <v>64.800134999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H20" s="5">
         <v>1.05</v>
       </c>
-      <c r="I18" s="5">
-        <f t="shared" ref="I18:I23" si="1">IF(C18=" "," ",IF(G18="USD",C18*(H18*$H$3),C18*H18))</f>
+      <c r="I20" s="5">
+        <f t="shared" ref="I20:I25" si="1">IF(C20=" "," ",IF(G20="USD",C20*(H20*$H$3),C20*H20))</f>
         <v>4.2</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K20" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>11</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H21" s="5">
         <v>0.94299999999999995</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="1"/>
         <v>0.94299999999999995</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K21" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>12</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="D22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="22">
         <v>1505</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H22" s="5">
         <v>0.86</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
         <v>4.4627119999999998</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K22" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>13</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C23" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="D23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="22">
         <v>1445</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H23" s="5">
         <v>0.86</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="1"/>
         <v>4.4627119999999998</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K23" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>14</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="22">
         <v>559</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H24" s="5">
         <v>4.5</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I24" s="5">
         <f t="shared" si="1"/>
         <v>5.8378499999999995</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C25" s="4">
         <v>2</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H25" s="5">
         <v>1.46</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K25" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="27" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H27" s="5">
         <v>10.97</v>
       </c>
-      <c r="I25" s="5">
-        <f t="shared" ref="I25:I26" si="2">IF(C25=" "," ",IF(G25="USD",C25*(H25*$H$3),C25*H25))</f>
+      <c r="I27" s="5">
+        <f t="shared" ref="I27:I28" si="2">IF(C27=" "," ",IF(G27="USD",C27*(H27*$H$3),C27*H27))</f>
         <v>21.94</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H28" s="5">
         <v>20.63</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I28" s="5">
         <f t="shared" si="2"/>
         <v>20.63</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>18</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="5">
-        <v>4.07</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" ref="I28:I33" si="3">IF(C28=" "," ",IF(G28="USD",C28*(H28*$H$3),C28*H28))</f>
-        <v>4.07</v>
-      </c>
       <c r="J28" s="4" t="s">
         <v>80</v>
       </c>
       <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>18</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="5">
+        <v>4.07</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" ref="I30:I35" si="3">IF(C30=" "," ",IF(G30="USD",C30*(H30*$H$3),C30*H30))</f>
+        <v>4.07</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>19</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H31" s="5">
         <v>6.83</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I31" s="5">
         <f t="shared" si="3"/>
         <v>6.83</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>20</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H32" s="5">
         <v>5.45</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I32" s="5">
         <f t="shared" si="3"/>
         <v>5.45</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K32" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="17">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="17">
         <v>2225</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H33" s="5">
         <v>0.75</v>
       </c>
-      <c r="I31" s="5">
-        <f>IF(C31=" "," ",IF(G31="USD",C31*(H31*$H$3),C31*H31))</f>
+      <c r="I33" s="5">
+        <f>IF(C33=" "," ",IF(G33="USD",C33*(H33*$H$3),C33*H33))</f>
         <v>0.97297499999999992</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K33" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>22</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="17">
         <v>898</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H34" s="5">
         <v>2.95</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I34" s="5">
         <f t="shared" si="3"/>
         <v>3.827035</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H35" s="5">
         <v>4.3600000000000003</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I35" s="5">
         <f t="shared" si="3"/>
         <v>4.3600000000000003</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K35" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="27" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>24</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E37" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H37" s="5">
         <v>50</v>
       </c>
-      <c r="I35" s="5">
-        <f t="shared" ref="I35:I39" si="4">IF(C35=" "," ",IF(G35="USD",C35*(H35*$H$3),C35*H35))</f>
+      <c r="I37" s="5">
+        <f t="shared" ref="I37:I41" si="4">IF(C37=" "," ",IF(G37="USD",C37*(H37*$H$3),C37*H37))</f>
         <v>50</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>25</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E38" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F38" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H38" s="5">
         <v>20</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I38" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>26</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="22">
+      <c r="D39" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="22">
         <v>2046</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H39" s="5">
         <v>0.5</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I39" s="5">
         <f t="shared" si="4"/>
         <v>3.2432499999999997</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K39" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>27</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C40" s="4">
         <v>0</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="D40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F40" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H40" s="5">
         <v>23.99</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I40" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>28</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B41" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E41" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F41" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G41" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H41" s="5">
         <v>5</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I41" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="27" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>29</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="D43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F43" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H43" s="5">
         <v>10.35</v>
       </c>
-      <c r="I41" s="5">
-        <f>IF(C41=" "," ",C41*H41)</f>
+      <c r="I43" s="5">
+        <f>IF(C43=" "," ",C43*H43)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="K41" s="4">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>30</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E44" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G44" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H44" s="5">
         <v>26.63</v>
       </c>
-      <c r="I42" s="5">
-        <f>IF(C42=" "," ",C42*H42)</f>
+      <c r="I44" s="5">
+        <f>IF(C44=" "," ",C44*H44)</f>
         <v>26.63</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I43" s="5">
-        <f>SUM(I6:I42)</f>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I45" s="5">
+        <f>SUM(I6:I44)</f>
         <v>455.22555899999998</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="29" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F18" r:id="rId1" xr:uid="{F32BBE2E-5235-B04B-8A4D-4FE59C340523}"/>
-    <hyperlink ref="F19" r:id="rId2" xr:uid="{FA45862E-35BF-2140-96DF-2ED5729BD185}"/>
-    <hyperlink ref="F23" r:id="rId3" xr:uid="{E8308B86-7137-8A4F-8822-DB0EE8E6973A}"/>
-    <hyperlink ref="F29" r:id="rId4" xr:uid="{91A6DB86-EAE0-EF40-8DDF-E3E7B462A5F1}"/>
-    <hyperlink ref="F28" r:id="rId5" xr:uid="{0BEF7C7E-1DB6-8A4B-9A72-73B1585E6D2C}"/>
-    <hyperlink ref="F31" r:id="rId6" display="https://www.adafruit.com/product/2225" xr:uid="{6CBDDD02-03A2-5347-9049-6D55AB2C9C55}"/>
-    <hyperlink ref="F30" r:id="rId7" xr:uid="{F123EC99-AC08-134D-A2B5-29B5C42CC25D}"/>
-    <hyperlink ref="F41" r:id="rId8" xr:uid="{C87255F3-3796-C540-9998-706875C0E10D}"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://www.adafruit.com/product/3581" xr:uid="{6A2174A8-628B-5B48-9E54-91DBA60AA639}"/>
-    <hyperlink ref="F12" r:id="rId10" display="https://www.adafruit.com/product/2465" xr:uid="{8836B5DD-397D-AB4D-BADC-BAF49EAD0DAC}"/>
-    <hyperlink ref="F13" r:id="rId11" display="https://www.adafruit.com/product/353" xr:uid="{38B1C1DD-DB58-4146-A280-7160C0FF9A4F}"/>
-    <hyperlink ref="F22" r:id="rId12" display="https://www.adafruit.com/product/559" xr:uid="{3E22DFFA-6703-7B41-BB12-5A10DD80ACE0}"/>
-    <hyperlink ref="F21" r:id="rId13" display="https://www.adafruit.com/product/1445" xr:uid="{7A0F0664-9FF6-484C-84A6-8203FD848BC2}"/>
-    <hyperlink ref="F20" r:id="rId14" display="https://www.adafruit.com/product/1505" xr:uid="{C047132F-AD04-4B41-B18B-3EB9D365C144}"/>
-    <hyperlink ref="F37" r:id="rId15" display="https://www.adafruit.com/product/2046" xr:uid="{9B6C64F9-9A8A-2F48-BEE9-02D864CC2D7E}"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{F32BBE2E-5235-B04B-8A4D-4FE59C340523}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{FA45862E-35BF-2140-96DF-2ED5729BD185}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{E8308B86-7137-8A4F-8822-DB0EE8E6973A}"/>
+    <hyperlink ref="F31" r:id="rId4" xr:uid="{91A6DB86-EAE0-EF40-8DDF-E3E7B462A5F1}"/>
+    <hyperlink ref="F30" r:id="rId5" xr:uid="{0BEF7C7E-1DB6-8A4B-9A72-73B1585E6D2C}"/>
+    <hyperlink ref="F33" r:id="rId6" display="https://www.adafruit.com/product/2225" xr:uid="{6CBDDD02-03A2-5347-9049-6D55AB2C9C55}"/>
+    <hyperlink ref="F32" r:id="rId7" xr:uid="{F123EC99-AC08-134D-A2B5-29B5C42CC25D}"/>
+    <hyperlink ref="F43" r:id="rId8" xr:uid="{C87255F3-3796-C540-9998-706875C0E10D}"/>
+    <hyperlink ref="F12" r:id="rId9" display="https://www.adafruit.com/product/3581" xr:uid="{6A2174A8-628B-5B48-9E54-91DBA60AA639}"/>
+    <hyperlink ref="F14" r:id="rId10" display="https://www.adafruit.com/product/2465" xr:uid="{8836B5DD-397D-AB4D-BADC-BAF49EAD0DAC}"/>
+    <hyperlink ref="F15" r:id="rId11" display="https://www.adafruit.com/product/353" xr:uid="{38B1C1DD-DB58-4146-A280-7160C0FF9A4F}"/>
+    <hyperlink ref="F24" r:id="rId12" display="https://www.adafruit.com/product/559" xr:uid="{3E22DFFA-6703-7B41-BB12-5A10DD80ACE0}"/>
+    <hyperlink ref="F23" r:id="rId13" display="https://www.adafruit.com/product/1445" xr:uid="{7A0F0664-9FF6-484C-84A6-8203FD848BC2}"/>
+    <hyperlink ref="F22" r:id="rId14" display="https://www.adafruit.com/product/1505" xr:uid="{C047132F-AD04-4B41-B18B-3EB9D365C144}"/>
+    <hyperlink ref="F39" r:id="rId15" display="https://www.adafruit.com/product/2046" xr:uid="{9B6C64F9-9A8A-2F48-BEE9-02D864CC2D7E}"/>
     <hyperlink ref="F6" r:id="rId16" xr:uid="{3D27C95E-064D-FD45-9495-8A59DCF16DB2}"/>
     <hyperlink ref="F7" r:id="rId17" xr:uid="{446C8CE6-3B14-EB4A-9125-EC496E85940D}"/>
-    <hyperlink ref="F9" r:id="rId18" xr:uid="{D36BBD37-E463-D449-9220-EEB606B4C9FE}"/>
-    <hyperlink ref="F25" r:id="rId19" xr:uid="{11863A39-C523-594C-96BA-2A5B0C69A7DC}"/>
-    <hyperlink ref="F26" r:id="rId20" xr:uid="{3A508D4A-4D9A-7B40-ADB7-D747D3AC5EB5}"/>
-    <hyperlink ref="F32" r:id="rId21" display="https://www.adafruit.com/product/898" xr:uid="{63D97F7E-4A2E-D34A-B21B-623C1E3AF894}"/>
-    <hyperlink ref="F42" r:id="rId22" display="https://www.mouser.ca/QuickViewProdDetail.aspx?PartNum=467-SDSDQAF3-016G-I&amp;KeepThis=true&amp;TB_iframe=true&amp;height=375&amp;width=530&amp;QuickView=true" xr:uid="{B8C1A719-6E40-7847-A1F9-D40ED12FF277}"/>
-    <hyperlink ref="F38" r:id="rId23" xr:uid="{88F9F1A1-9FF6-6F44-B892-090AB5CB6E90}"/>
-    <hyperlink ref="F16" r:id="rId24" display="https://www.adafruit.com/product/2674" xr:uid="{1FB4622F-3ACA-1245-ACBA-39CBC276567B}"/>
-    <hyperlink ref="F14" r:id="rId25" display="https://www.adafruit.com/product/1994" xr:uid="{6824D4FC-9F69-1349-83E4-300D263C8786}"/>
-    <hyperlink ref="F33" r:id="rId26" xr:uid="{5083C2F2-3D7D-AC4D-AF2B-D22A1C713F04}"/>
-    <hyperlink ref="C46" r:id="rId27" xr:uid="{7DB89C0D-C01A-E14A-94D1-811311A86A8C}"/>
+    <hyperlink ref="F11" r:id="rId18" xr:uid="{D36BBD37-E463-D449-9220-EEB606B4C9FE}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{11863A39-C523-594C-96BA-2A5B0C69A7DC}"/>
+    <hyperlink ref="F28" r:id="rId20" xr:uid="{3A508D4A-4D9A-7B40-ADB7-D747D3AC5EB5}"/>
+    <hyperlink ref="F34" r:id="rId21" display="https://www.adafruit.com/product/898" xr:uid="{63D97F7E-4A2E-D34A-B21B-623C1E3AF894}"/>
+    <hyperlink ref="F44" r:id="rId22" display="https://www.mouser.ca/QuickViewProdDetail.aspx?PartNum=467-SDSDQAF3-016G-I&amp;KeepThis=true&amp;TB_iframe=true&amp;height=375&amp;width=530&amp;QuickView=true" xr:uid="{B8C1A719-6E40-7847-A1F9-D40ED12FF277}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{88F9F1A1-9FF6-6F44-B892-090AB5CB6E90}"/>
+    <hyperlink ref="F18" r:id="rId24" display="https://www.adafruit.com/product/2674" xr:uid="{1FB4622F-3ACA-1245-ACBA-39CBC276567B}"/>
+    <hyperlink ref="F16" r:id="rId25" display="https://www.adafruit.com/product/1994" xr:uid="{6824D4FC-9F69-1349-83E4-300D263C8786}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{5083C2F2-3D7D-AC4D-AF2B-D22A1C713F04}"/>
+    <hyperlink ref="C48" r:id="rId27" xr:uid="{7DB89C0D-C01A-E14A-94D1-811311A86A8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
